--- a/MyCollectionShelf.Book/API.xlsx
+++ b/MyCollectionShelf.Book/API.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\MyCollectionShelf\MyCollectionShelf.WebApi\Book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\MyCollectionShelf\MyCollectionShelf.Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4FDB59-642D-483C-91D3-BCE976FEE0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C03065-6E27-41FE-8D9B-1F55C9E5A416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>API Name</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>Can't get a new key</t>
+  </si>
+  <si>
+    <t>librarything</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -191,7 +203,7 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -244,63 +256,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFBBC04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBBC04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBBC04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -353,6 +309,34 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBBC04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF34A853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,14 +359,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E5" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A1:E5" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E7" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:E7" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -651,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,26 +731,50 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:D7">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Break"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Not working anymore"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{CE4DE145-6998-4203-ACB5-54853E103B2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{CE4DE145-6998-4203-ACB5-54853E103B2D}">
       <formula1>"Planned, Working, Not working anymore, Break"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{F7D7C22D-374D-4551-8CBF-869D0EB0AB6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{F7D7C22D-374D-4551-8CBF-869D0EB0AB6A}">
       <formula1>"All, Comics, Books / Comics"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MyCollectionShelf.Book/API.xlsx
+++ b/MyCollectionShelf.Book/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\MyCollectionShelf\MyCollectionShelf.Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C03065-6E27-41FE-8D9B-1F55C9E5A416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF0670-3D14-4A84-AC7A-0941FE8055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>API Name</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/advanced-search/books</t>
   </si>
 </sst>
 </file>
@@ -203,63 +206,7 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBBC04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBBC04"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF34A853"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -359,14 +306,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E7" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E7" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E7" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,7 +585,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,20 +700,23 @@
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D7">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Break"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Not working anymore"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Planned"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -783,11 +733,12 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{F949E66E-FE97-4165-8FD2-D60DBD64CE8B}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{AB3BCF44-6A84-4FC5-9FD9-00626B916500}"/>
     <hyperlink ref="J2" r:id="rId4" location="gid=0" xr:uid="{D2A5A754-7B24-4402-9782-B428FFB2EC63}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{563BC6B8-1A59-4E72-AF8A-18E9BE171444}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MyCollectionShelf.Book/API.xlsx
+++ b/MyCollectionShelf.Book/API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP6177\Creative Cloud Files\Programmation\C#\Ineo Infracom\MyCollectionShelf\MyCollectionShelf.Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF0670-3D14-4A84-AC7A-0941FE8055B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81576C9D-D24D-4C8B-8236-D7DAA9D880FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>API Name</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>https://www.amazon.fr/advanced-search/books</t>
+  </si>
+  <si>
+    <t>https://www.decitre.fr</t>
+  </si>
+  <si>
+    <t>Decrite</t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,35 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBBC04"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF34A853"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -306,14 +340,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E7" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E7" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}" name="Tableau1" displayName="Tableau1" ref="A1:E8" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:E8" xr:uid="{7B595B61-263B-4F4E-AC07-55A26A560DA0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{67F1B218-630A-4E64-8D72-1EADA749FFF9}" name="API Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C6D8D571-65A4-4C39-98C7-56AB26CAF55F}" name="Type" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E4064A3D-F2F0-4012-97F1-BF097E90802C}" name="Status" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{835B3B60-72BC-49C8-B651-48A190B1E145}" name="Exemple" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B10D8ABD-3FF2-439E-BE45-375C4A412788}" name="Comments" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -582,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,26 +739,41 @@
       </c>
       <c r="E7" s="3"/>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D7">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:D8">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Break"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Not working anymore"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Working"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{CE4DE145-6998-4203-ACB5-54853E103B2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8" xr:uid="{CE4DE145-6998-4203-ACB5-54853E103B2D}">
       <formula1>"Planned, Working, Not working anymore, Break"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{F7D7C22D-374D-4551-8CBF-869D0EB0AB6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{F7D7C22D-374D-4551-8CBF-869D0EB0AB6A}">
       <formula1>"All, Comics, Books / Comics"</formula1>
     </dataValidation>
   </dataValidations>
@@ -734,11 +783,12 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{AB3BCF44-6A84-4FC5-9FD9-00626B916500}"/>
     <hyperlink ref="J2" r:id="rId4" location="gid=0" xr:uid="{D2A5A754-7B24-4402-9782-B428FFB2EC63}"/>
     <hyperlink ref="D7" r:id="rId5" xr:uid="{563BC6B8-1A59-4E72-AF8A-18E9BE171444}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{72A3B227-4BF9-4CF1-BC71-D577F563AFC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>